--- a/Jogos_do_Dia/2024-04-10_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-04-10_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -148,12 +148,12 @@
     <t>Slovenia PrvaLiga</t>
   </si>
   <si>
+    <t>England EFL League One</t>
+  </si>
+  <si>
     <t>England Championship</t>
   </si>
   <si>
-    <t>England EFL League One</t>
-  </si>
-  <si>
     <t>Scotland Premiership</t>
   </si>
   <si>
@@ -181,22 +181,25 @@
     <t>Olimpija</t>
   </si>
   <si>
+    <t>Peterborough United</t>
+  </si>
+  <si>
+    <t>Wycombe Wanderers</t>
+  </si>
+  <si>
+    <t>Birmingham City</t>
+  </si>
+  <si>
+    <t>Bristol City</t>
+  </si>
+  <si>
+    <t>Hull City</t>
+  </si>
+  <si>
     <t>Ipswich Town</t>
   </si>
   <si>
-    <t>Hull City</t>
-  </si>
-  <si>
-    <t>Bristol City</t>
-  </si>
-  <si>
-    <t>Birmingham City</t>
-  </si>
-  <si>
-    <t>Wycombe Wanderers</t>
-  </si>
-  <si>
-    <t>Peterborough United</t>
+    <t>West Bromwich Albion</t>
   </si>
   <si>
     <t>Dundee</t>
@@ -205,9 +208,6 @@
     <t>Swansea City</t>
   </si>
   <si>
-    <t>West Bromwich Albion</t>
-  </si>
-  <si>
     <t>Bravo</t>
   </si>
   <si>
@@ -217,31 +217,31 @@
     <t>Radomlje</t>
   </si>
   <si>
+    <t>Port Vale</t>
+  </si>
+  <si>
+    <t>Derby County</t>
+  </si>
+  <si>
+    <t>Cardiff City</t>
+  </si>
+  <si>
+    <t>Blackburn Rovers</t>
+  </si>
+  <si>
+    <t>Middlesbrough</t>
+  </si>
+  <si>
     <t>Watford</t>
   </si>
   <si>
-    <t>Middlesbrough</t>
-  </si>
-  <si>
-    <t>Blackburn Rovers</t>
-  </si>
-  <si>
-    <t>Cardiff City</t>
-  </si>
-  <si>
-    <t>Derby County</t>
-  </si>
-  <si>
-    <t>Port Vale</t>
+    <t>Rotherham United</t>
   </si>
   <si>
     <t>Rangers</t>
   </si>
   <si>
     <t>Stoke City</t>
-  </si>
-  <si>
-    <t>Rotherham United</t>
   </si>
 </sst>
 </file>
@@ -769,13 +769,13 @@
         <v>6.94</v>
       </c>
       <c r="J2">
-        <v>1.44</v>
+        <v>1.32</v>
       </c>
       <c r="K2">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="L2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M2">
         <v>1.35</v>
@@ -796,10 +796,10 @@
         <v>3.4</v>
       </c>
       <c r="S2">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="T2">
-        <v>1.85</v>
+        <v>2.01</v>
       </c>
       <c r="U2">
         <v>2.05</v>
@@ -832,25 +832,25 @@
         <v>3.46</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>3.38</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="AJ2">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AK2">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="AL2">
         <v>1.69</v>
@@ -865,10 +865,10 @@
         <v>1.69</v>
       </c>
       <c r="AP2">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="AQ2">
-        <v>0</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -900,13 +900,13 @@
         <v>4.05</v>
       </c>
       <c r="J3">
-        <v>1.94</v>
+        <v>2.16</v>
       </c>
       <c r="K3">
-        <v>3.37</v>
+        <v>3.45</v>
       </c>
       <c r="L3">
-        <v>3.37</v>
+        <v>2.71</v>
       </c>
       <c r="M3">
         <v>1.38</v>
@@ -927,10 +927,10 @@
         <v>3.34</v>
       </c>
       <c r="S3">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="T3">
-        <v>1.85</v>
+        <v>2.01</v>
       </c>
       <c r="U3">
         <v>1.71</v>
@@ -963,43 +963,43 @@
         <v>2.82</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="AJ3">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AK3">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AN3">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AO3">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AP3">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AQ3">
-        <v>0</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -1031,13 +1031,13 @@
         <v>6</v>
       </c>
       <c r="J4">
-        <v>1.34</v>
+        <v>1.4</v>
       </c>
       <c r="K4">
-        <v>4.55</v>
+        <v>4.3</v>
       </c>
       <c r="L4">
-        <v>7.05</v>
+        <v>5.7</v>
       </c>
       <c r="M4">
         <v>1.3</v>
@@ -1058,10 +1058,10 @@
         <v>4.33</v>
       </c>
       <c r="S4">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="T4">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="U4">
         <v>1.87</v>
@@ -1094,43 +1094,43 @@
         <v>3.48</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>10.75</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>5.35</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="AJ4">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AK4">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AM4">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="AN4">
-        <v>0</v>
+        <v>2.19</v>
       </c>
       <c r="AO4">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AP4">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="AQ4">
-        <v>0</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -1144,7 +1144,7 @@
         <v>50</v>
       </c>
       <c r="D5">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
         <v>55</v>
@@ -1153,49 +1153,49 @@
         <v>67</v>
       </c>
       <c r="G5">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="H5">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="I5">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="J5">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="K5">
-        <v>4.5</v>
+        <v>4.55</v>
       </c>
       <c r="L5">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="M5">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="N5">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="O5">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="P5">
-        <v>18.25</v>
+        <v>10</v>
       </c>
       <c r="Q5">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="R5">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="S5">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="T5">
-        <v>2.25</v>
+        <v>2.36</v>
       </c>
       <c r="U5">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V5">
         <v>1.95</v>
@@ -1204,64 +1204,64 @@
         <v>1.13</v>
       </c>
       <c r="X5">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="Y5">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="Z5">
-        <v>2.45</v>
+        <v>1.85</v>
       </c>
       <c r="AA5">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="AB5">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="AC5">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AD5">
-        <v>2.98</v>
+        <v>2.77</v>
       </c>
       <c r="AE5">
-        <v>1.21</v>
+        <v>1.41</v>
       </c>
       <c r="AF5">
-        <v>11.7</v>
+        <v>9.5</v>
       </c>
       <c r="AG5">
-        <v>7.4</v>
+        <v>3.48</v>
       </c>
       <c r="AH5">
-        <v>1.23</v>
+        <v>1.15</v>
       </c>
       <c r="AI5">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="AJ5">
-        <v>1.43</v>
+        <v>1.22</v>
       </c>
       <c r="AK5">
-        <v>2.84</v>
+        <v>3.65</v>
       </c>
       <c r="AL5">
-        <v>1.72</v>
+        <v>1.42</v>
       </c>
       <c r="AM5">
-        <v>2.13</v>
+        <v>2.65</v>
       </c>
       <c r="AN5">
-        <v>2.13</v>
+        <v>1.95</v>
       </c>
       <c r="AO5">
-        <v>1.72</v>
+        <v>1.85</v>
       </c>
       <c r="AP5">
-        <v>2.78</v>
+        <v>2.14</v>
       </c>
       <c r="AQ5">
-        <v>1.44</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="6" spans="1:43">
@@ -1275,7 +1275,7 @@
         <v>50</v>
       </c>
       <c r="D6">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E6" t="s">
         <v>56</v>
@@ -1284,120 +1284,120 @@
         <v>68</v>
       </c>
       <c r="G6">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="H6">
         <v>2.15</v>
       </c>
       <c r="I6">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="J6">
-        <v>2.15</v>
+        <v>3.45</v>
       </c>
       <c r="K6">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="L6">
-        <v>2.87</v>
+        <v>1.86</v>
       </c>
       <c r="M6">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="N6">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="O6">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="P6">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="Q6">
+        <v>1.35</v>
+      </c>
+      <c r="R6">
+        <v>3.1</v>
+      </c>
+      <c r="S6">
+        <v>1.94</v>
+      </c>
+      <c r="T6">
+        <v>1.66</v>
+      </c>
+      <c r="U6">
+        <v>1.8</v>
+      </c>
+      <c r="V6">
+        <v>1.85</v>
+      </c>
+      <c r="W6">
+        <v>1.88</v>
+      </c>
+      <c r="X6">
+        <v>1.3</v>
+      </c>
+      <c r="Y6">
         <v>1.25</v>
       </c>
-      <c r="R6">
-        <v>3.75</v>
-      </c>
-      <c r="S6">
-        <v>1.75</v>
-      </c>
-      <c r="T6">
-        <v>1.95</v>
-      </c>
-      <c r="U6">
-        <v>1.62</v>
-      </c>
-      <c r="V6">
-        <v>2.15</v>
-      </c>
-      <c r="W6">
-        <v>1.35</v>
-      </c>
-      <c r="X6">
-        <v>1.25</v>
-      </c>
-      <c r="Y6">
-        <v>1.62</v>
-      </c>
       <c r="Z6">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="AA6">
-        <v>1.5</v>
+        <v>1.86</v>
       </c>
       <c r="AB6">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="AC6">
         <v>1.36</v>
       </c>
       <c r="AD6">
-        <v>2.89</v>
+        <v>2.81</v>
       </c>
       <c r="AE6">
-        <v>2.04</v>
+        <v>2.55</v>
       </c>
       <c r="AF6">
-        <v>7.43</v>
+        <v>7.5</v>
       </c>
       <c r="AG6">
-        <v>2.33</v>
+        <v>1.69</v>
       </c>
       <c r="AH6">
-        <v>1.22</v>
+        <v>1.13</v>
       </c>
       <c r="AI6">
-        <v>4.36</v>
+        <v>6.07</v>
       </c>
       <c r="AJ6">
-        <v>1.41</v>
+        <v>1.26</v>
       </c>
       <c r="AK6">
-        <v>2.93</v>
+        <v>3.83</v>
       </c>
       <c r="AL6">
+        <v>1.47</v>
+      </c>
+      <c r="AM6">
+        <v>2.69</v>
+      </c>
+      <c r="AN6">
+        <v>1.76</v>
+      </c>
+      <c r="AO6">
+        <v>2.06</v>
+      </c>
+      <c r="AP6">
+        <v>2.17</v>
+      </c>
+      <c r="AQ6">
         <v>1.69</v>
-      </c>
-      <c r="AM6">
-        <v>2.18</v>
-      </c>
-      <c r="AN6">
-        <v>2.08</v>
-      </c>
-      <c r="AO6">
-        <v>1.75</v>
-      </c>
-      <c r="AP6">
-        <v>2.7</v>
-      </c>
-      <c r="AQ6">
-        <v>1.46</v>
       </c>
     </row>
     <row r="7" spans="1:43">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B7" s="2">
         <v>45392</v>
@@ -1415,120 +1415,120 @@
         <v>69</v>
       </c>
       <c r="G7">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="I7">
-        <v>3.55</v>
+        <v>4.75</v>
       </c>
       <c r="J7">
-        <v>2.25</v>
+        <v>1.89</v>
       </c>
       <c r="K7">
-        <v>3.4</v>
+        <v>3.21</v>
       </c>
       <c r="L7">
-        <v>3.1</v>
+        <v>3.68</v>
       </c>
       <c r="M7">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="N7">
-        <v>2.65</v>
+        <v>2.63</v>
       </c>
       <c r="O7">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="P7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Q7">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="R7">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="S7">
-        <v>1.85</v>
+        <v>2.01</v>
       </c>
       <c r="T7">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="U7">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="V7">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="W7">
-        <v>1.36</v>
+        <v>1.26</v>
       </c>
       <c r="X7">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="Y7">
-        <v>1.57</v>
+        <v>1.87</v>
       </c>
       <c r="Z7">
         <v>1.5</v>
       </c>
       <c r="AA7">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="AB7">
-        <v>1.23</v>
+        <v>1.29</v>
       </c>
       <c r="AC7">
+        <v>1.08</v>
+      </c>
+      <c r="AD7">
+        <v>2.37</v>
+      </c>
+      <c r="AE7">
+        <v>1.8</v>
+      </c>
+      <c r="AF7">
+        <v>7.65</v>
+      </c>
+      <c r="AG7">
+        <v>2.77</v>
+      </c>
+      <c r="AH7">
         <v>1.21</v>
       </c>
-      <c r="AD7">
-        <v>2.44</v>
-      </c>
-      <c r="AE7">
-        <v>1.57</v>
-      </c>
-      <c r="AF7">
-        <v>8.35</v>
-      </c>
-      <c r="AG7">
-        <v>3.4</v>
-      </c>
-      <c r="AH7">
-        <v>1.15</v>
-      </c>
       <c r="AI7">
-        <v>5.39</v>
+        <v>4.44</v>
       </c>
       <c r="AJ7">
-        <v>1.31</v>
+        <v>1.4</v>
       </c>
       <c r="AK7">
-        <v>3.48</v>
+        <v>2.97</v>
       </c>
       <c r="AL7">
-        <v>1.54</v>
+        <v>1.67</v>
       </c>
       <c r="AM7">
-        <v>2.49</v>
+        <v>2.2</v>
       </c>
       <c r="AN7">
-        <v>1.85</v>
+        <v>2.06</v>
       </c>
       <c r="AO7">
-        <v>1.95</v>
+        <v>1.76</v>
       </c>
       <c r="AP7">
-        <v>2.33</v>
+        <v>2.66</v>
       </c>
       <c r="AQ7">
-        <v>1.6</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="8" spans="1:43">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B8" s="2">
         <v>45392</v>
@@ -1546,115 +1546,115 @@
         <v>70</v>
       </c>
       <c r="G8">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="H8">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="I8">
-        <v>4.75</v>
+        <v>3.55</v>
       </c>
       <c r="J8">
-        <v>1.82</v>
+        <v>2.28</v>
       </c>
       <c r="K8">
-        <v>3.3</v>
+        <v>3.12</v>
       </c>
       <c r="L8">
-        <v>4.07</v>
+        <v>2.82</v>
       </c>
       <c r="M8">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="N8">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="O8">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="P8">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q8">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="R8">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="S8">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="T8">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="U8">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="V8">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="W8">
-        <v>1.26</v>
+        <v>1.36</v>
       </c>
       <c r="X8">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="Y8">
-        <v>1.87</v>
+        <v>1.57</v>
       </c>
       <c r="Z8">
         <v>1.5</v>
       </c>
       <c r="AA8">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="AB8">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
       <c r="AC8">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AD8">
-        <v>2.37</v>
+        <v>2.44</v>
       </c>
       <c r="AE8">
-        <v>1.8</v>
+        <v>1.57</v>
       </c>
       <c r="AF8">
-        <v>7.65</v>
+        <v>8.35</v>
       </c>
       <c r="AG8">
-        <v>2.77</v>
+        <v>3.4</v>
       </c>
       <c r="AH8">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="AI8">
-        <v>4.44</v>
+        <v>5.39</v>
       </c>
       <c r="AJ8">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AK8">
-        <v>2.97</v>
+        <v>3.48</v>
       </c>
       <c r="AL8">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AM8">
-        <v>2.2</v>
+        <v>2.49</v>
       </c>
       <c r="AN8">
-        <v>2.06</v>
+        <v>1.85</v>
       </c>
       <c r="AO8">
-        <v>1.76</v>
+        <v>1.95</v>
       </c>
       <c r="AP8">
-        <v>2.66</v>
+        <v>2.33</v>
       </c>
       <c r="AQ8">
-        <v>1.48</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="9" spans="1:43">
@@ -1668,7 +1668,7 @@
         <v>50</v>
       </c>
       <c r="D9">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E9" t="s">
         <v>59</v>
@@ -1677,115 +1677,115 @@
         <v>71</v>
       </c>
       <c r="G9">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="H9">
         <v>2.15</v>
       </c>
       <c r="I9">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="J9">
-        <v>3.49</v>
+        <v>2.15</v>
       </c>
       <c r="K9">
-        <v>3.1</v>
+        <v>3.27</v>
       </c>
       <c r="L9">
-        <v>1.85</v>
+        <v>2.93</v>
       </c>
       <c r="M9">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="N9">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="O9">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="P9">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="Q9">
+        <v>1.25</v>
+      </c>
+      <c r="R9">
+        <v>3.75</v>
+      </c>
+      <c r="S9">
+        <v>1.72</v>
+      </c>
+      <c r="T9">
+        <v>1.98</v>
+      </c>
+      <c r="U9">
+        <v>1.62</v>
+      </c>
+      <c r="V9">
+        <v>2.15</v>
+      </c>
+      <c r="W9">
         <v>1.35</v>
       </c>
-      <c r="R9">
-        <v>3.1</v>
-      </c>
-      <c r="S9">
-        <v>1.96</v>
-      </c>
-      <c r="T9">
-        <v>1.8</v>
-      </c>
-      <c r="U9">
-        <v>1.8</v>
-      </c>
-      <c r="V9">
-        <v>1.85</v>
-      </c>
-      <c r="W9">
-        <v>1.88</v>
-      </c>
       <c r="X9">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="Y9">
-        <v>1.25</v>
+        <v>1.62</v>
       </c>
       <c r="Z9">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AA9">
-        <v>1.86</v>
+        <v>1.5</v>
       </c>
       <c r="AB9">
-        <v>1.45</v>
+        <v>1.53</v>
       </c>
       <c r="AC9">
         <v>1.36</v>
       </c>
       <c r="AD9">
-        <v>2.81</v>
+        <v>2.89</v>
       </c>
       <c r="AE9">
-        <v>2.55</v>
+        <v>2.04</v>
       </c>
       <c r="AF9">
-        <v>7.5</v>
+        <v>7.43</v>
       </c>
       <c r="AG9">
+        <v>2.33</v>
+      </c>
+      <c r="AH9">
+        <v>1.22</v>
+      </c>
+      <c r="AI9">
+        <v>4.36</v>
+      </c>
+      <c r="AJ9">
+        <v>1.41</v>
+      </c>
+      <c r="AK9">
+        <v>2.93</v>
+      </c>
+      <c r="AL9">
         <v>1.69</v>
       </c>
-      <c r="AH9">
-        <v>1.13</v>
-      </c>
-      <c r="AI9">
-        <v>6.07</v>
-      </c>
-      <c r="AJ9">
-        <v>1.26</v>
-      </c>
-      <c r="AK9">
-        <v>3.83</v>
-      </c>
-      <c r="AL9">
-        <v>1.47</v>
-      </c>
       <c r="AM9">
-        <v>2.69</v>
+        <v>2.18</v>
       </c>
       <c r="AN9">
-        <v>1.76</v>
+        <v>2.08</v>
       </c>
       <c r="AO9">
-        <v>2.06</v>
+        <v>1.75</v>
       </c>
       <c r="AP9">
-        <v>2.17</v>
+        <v>2.7</v>
       </c>
       <c r="AQ9">
-        <v>1.69</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="10" spans="1:43">
@@ -1799,7 +1799,7 @@
         <v>50</v>
       </c>
       <c r="D10">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="E10" t="s">
         <v>60</v>
@@ -1808,49 +1808,49 @@
         <v>72</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="H10">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="I10">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="J10">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="K10">
-        <v>4.24</v>
+        <v>4.3</v>
       </c>
       <c r="L10">
         <v>5.8</v>
       </c>
       <c r="M10">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="N10">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O10">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="P10">
-        <v>10</v>
+        <v>18.25</v>
       </c>
       <c r="Q10">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="R10">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="S10">
-        <v>1.61</v>
+        <v>1.57</v>
       </c>
       <c r="T10">
-        <v>2.2</v>
+        <v>2.31</v>
       </c>
       <c r="U10">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V10">
         <v>1.95</v>
@@ -1859,69 +1859,69 @@
         <v>1.13</v>
       </c>
       <c r="X10">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="Y10">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="Z10">
-        <v>1.85</v>
+        <v>2.45</v>
       </c>
       <c r="AA10">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="AB10">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="AC10">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="AD10">
-        <v>2.77</v>
+        <v>2.98</v>
       </c>
       <c r="AE10">
-        <v>1.41</v>
+        <v>1.21</v>
       </c>
       <c r="AF10">
-        <v>9.5</v>
+        <v>11.7</v>
       </c>
       <c r="AG10">
-        <v>3.48</v>
+        <v>7.4</v>
       </c>
       <c r="AH10">
-        <v>1.15</v>
+        <v>1.23</v>
       </c>
       <c r="AI10">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="AJ10">
-        <v>1.22</v>
+        <v>1.43</v>
       </c>
       <c r="AK10">
-        <v>3.65</v>
+        <v>2.84</v>
       </c>
       <c r="AL10">
-        <v>1.42</v>
+        <v>1.72</v>
       </c>
       <c r="AM10">
-        <v>2.65</v>
+        <v>2.13</v>
       </c>
       <c r="AN10">
-        <v>1.95</v>
+        <v>2.13</v>
       </c>
       <c r="AO10">
-        <v>1.85</v>
+        <v>1.72</v>
       </c>
       <c r="AP10">
-        <v>2.14</v>
+        <v>2.78</v>
       </c>
       <c r="AQ10">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="11" spans="1:43">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B11" s="2">
         <v>45392</v>
@@ -1930,7 +1930,7 @@
         <v>51</v>
       </c>
       <c r="D11">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="E11" t="s">
         <v>61</v>
@@ -1939,120 +1939,120 @@
         <v>73</v>
       </c>
       <c r="G11">
-        <v>7</v>
+        <v>1.8</v>
       </c>
       <c r="H11">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="I11">
-        <v>1.83</v>
+        <v>9</v>
       </c>
       <c r="J11">
-        <v>6.9</v>
+        <v>1.27</v>
       </c>
       <c r="K11">
-        <v>5.05</v>
+        <v>4.85</v>
       </c>
       <c r="L11">
-        <v>1.41</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="M11">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="N11">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="O11">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="P11">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="Q11">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="R11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S11">
-        <v>1.52</v>
+        <v>1.72</v>
       </c>
       <c r="T11">
-        <v>2.35</v>
+        <v>2.05</v>
       </c>
       <c r="U11">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="V11">
-        <v>1.95</v>
+        <v>1.57</v>
       </c>
       <c r="W11">
-        <v>3.1</v>
+        <v>1.04</v>
       </c>
       <c r="X11">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="Y11">
-        <v>1.07</v>
+        <v>3.4</v>
       </c>
       <c r="Z11">
-        <v>1.47</v>
+        <v>2.15</v>
       </c>
       <c r="AA11">
-        <v>2.43</v>
+        <v>0.2</v>
       </c>
       <c r="AB11">
         <v>1.33</v>
       </c>
       <c r="AC11">
-        <v>1.83</v>
+        <v>0.9</v>
       </c>
       <c r="AD11">
-        <v>3.16</v>
+        <v>2.23</v>
       </c>
       <c r="AE11">
-        <v>4.46</v>
+        <v>1.09</v>
       </c>
       <c r="AF11">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AG11">
-        <v>1.26</v>
+        <v>8.85</v>
       </c>
       <c r="AH11">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="AI11">
-        <v>6</v>
+        <v>5.04</v>
       </c>
       <c r="AJ11">
-        <v>1.19</v>
+        <v>1.34</v>
       </c>
       <c r="AK11">
-        <v>3.96</v>
+        <v>3.29</v>
       </c>
       <c r="AL11">
-        <v>1.36</v>
+        <v>1.58</v>
       </c>
       <c r="AM11">
-        <v>2.79</v>
+        <v>2.38</v>
       </c>
       <c r="AN11">
-        <v>1.68</v>
+        <v>1.92</v>
       </c>
       <c r="AO11">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AP11">
-        <v>2.04</v>
+        <v>2.43</v>
       </c>
       <c r="AQ11">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="12" spans="1:43">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B12" s="2">
         <v>45392</v>
@@ -2061,7 +2061,7 @@
         <v>51</v>
       </c>
       <c r="D12">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="E12" t="s">
         <v>62</v>
@@ -2070,120 +2070,120 @@
         <v>74</v>
       </c>
       <c r="G12">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H12">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="I12">
+        <v>1.83</v>
+      </c>
+      <c r="J12">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="K12">
+        <v>5.8</v>
+      </c>
+      <c r="L12">
+        <v>1.25</v>
+      </c>
+      <c r="M12">
+        <v>1.29</v>
+      </c>
+      <c r="N12">
         <v>3.5</v>
       </c>
-      <c r="J12">
-        <v>2.42</v>
-      </c>
-      <c r="K12">
-        <v>3.2</v>
-      </c>
-      <c r="L12">
-        <v>2.83</v>
-      </c>
-      <c r="M12">
-        <v>1.4</v>
-      </c>
-      <c r="N12">
-        <v>2.75</v>
-      </c>
       <c r="O12">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="P12">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="Q12">
-        <v>1.32</v>
+        <v>1.18</v>
       </c>
       <c r="R12">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="S12">
-        <v>1.91</v>
+        <v>1.48</v>
       </c>
       <c r="T12">
+        <v>2.54</v>
+      </c>
+      <c r="U12">
         <v>1.8</v>
       </c>
-      <c r="U12">
-        <v>1.73</v>
-      </c>
       <c r="V12">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W12">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="X12">
-        <v>1.28</v>
+        <v>1.12</v>
       </c>
       <c r="Y12">
-        <v>1.6</v>
+        <v>1.07</v>
       </c>
       <c r="Z12">
-        <v>1.15</v>
+        <v>1.47</v>
       </c>
       <c r="AA12">
-        <v>1.1</v>
+        <v>2.43</v>
       </c>
       <c r="AB12">
         <v>1.33</v>
       </c>
       <c r="AC12">
-        <v>1.24</v>
+        <v>1.83</v>
       </c>
       <c r="AD12">
-        <v>2.57</v>
+        <v>3.16</v>
       </c>
       <c r="AE12">
-        <v>1.83</v>
+        <v>4.46</v>
       </c>
       <c r="AF12">
-        <v>6.5</v>
+        <v>11</v>
       </c>
       <c r="AG12">
-        <v>2.5</v>
+        <v>1.26</v>
       </c>
       <c r="AH12">
-        <v>1.22</v>
+        <v>1.11</v>
       </c>
       <c r="AI12">
-        <v>4.28</v>
+        <v>6</v>
       </c>
       <c r="AJ12">
-        <v>1.42</v>
+        <v>1.19</v>
       </c>
       <c r="AK12">
-        <v>2.89</v>
+        <v>3.96</v>
       </c>
       <c r="AL12">
-        <v>1.7</v>
+        <v>1.36</v>
       </c>
       <c r="AM12">
-        <v>2.15</v>
+        <v>2.79</v>
       </c>
       <c r="AN12">
-        <v>2.1</v>
+        <v>1.68</v>
       </c>
       <c r="AO12">
-        <v>1.73</v>
+        <v>2.14</v>
       </c>
       <c r="AP12">
-        <v>2.74</v>
+        <v>2.04</v>
       </c>
       <c r="AQ12">
-        <v>1.45</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="13" spans="1:43">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B13" s="2">
         <v>45392</v>
@@ -2201,115 +2201,115 @@
         <v>75</v>
       </c>
       <c r="G13">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="H13">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="I13">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="J13">
-        <v>1.26</v>
+        <v>2.3</v>
       </c>
       <c r="K13">
-        <v>4.75</v>
+        <v>3.15</v>
       </c>
       <c r="L13">
-        <v>10.4</v>
+        <v>2.78</v>
       </c>
       <c r="M13">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="N13">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="O13">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="P13">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="Q13">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
       <c r="R13">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="S13">
-        <v>1.8</v>
+        <v>1.89</v>
       </c>
       <c r="T13">
-        <v>1.91</v>
+        <v>1.81</v>
       </c>
       <c r="U13">
-        <v>2.25</v>
+        <v>1.73</v>
       </c>
       <c r="V13">
-        <v>1.57</v>
+        <v>2</v>
       </c>
       <c r="W13">
-        <v>1.04</v>
+        <v>1.4</v>
       </c>
       <c r="X13">
-        <v>1.13</v>
+        <v>1.28</v>
       </c>
       <c r="Y13">
-        <v>3.4</v>
+        <v>1.6</v>
       </c>
       <c r="Z13">
-        <v>2.15</v>
+        <v>1.15</v>
       </c>
       <c r="AA13">
-        <v>0.2</v>
+        <v>1.1</v>
       </c>
       <c r="AB13">
         <v>1.33</v>
       </c>
       <c r="AC13">
-        <v>0.9</v>
+        <v>1.24</v>
       </c>
       <c r="AD13">
-        <v>2.23</v>
+        <v>2.57</v>
       </c>
       <c r="AE13">
-        <v>1.09</v>
+        <v>1.83</v>
       </c>
       <c r="AF13">
-        <v>13</v>
+        <v>6.5</v>
       </c>
       <c r="AG13">
-        <v>8.85</v>
+        <v>2.5</v>
       </c>
       <c r="AH13">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="AI13">
-        <v>5.04</v>
+        <v>4.28</v>
       </c>
       <c r="AJ13">
-        <v>1.34</v>
+        <v>1.42</v>
       </c>
       <c r="AK13">
-        <v>3.29</v>
+        <v>2.89</v>
       </c>
       <c r="AL13">
-        <v>1.58</v>
+        <v>1.7</v>
       </c>
       <c r="AM13">
-        <v>2.38</v>
+        <v>2.15</v>
       </c>
       <c r="AN13">
-        <v>1.92</v>
+        <v>2.1</v>
       </c>
       <c r="AO13">
-        <v>1.88</v>
+        <v>1.73</v>
       </c>
       <c r="AP13">
-        <v>2.43</v>
+        <v>2.74</v>
       </c>
       <c r="AQ13">
-        <v>1.56</v>
+        <v>1.45</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia/2024-04-10_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-04-10_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -817,10 +817,10 @@
         <v>2.7</v>
       </c>
       <c r="Z2">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AA2">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AB2">
         <v>1.98</v>
@@ -900,13 +900,13 @@
         <v>4.05</v>
       </c>
       <c r="J3">
-        <v>2.16</v>
+        <v>1.95</v>
       </c>
       <c r="K3">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="L3">
-        <v>2.71</v>
+        <v>3.3</v>
       </c>
       <c r="M3">
         <v>1.38</v>
@@ -927,10 +927,10 @@
         <v>3.34</v>
       </c>
       <c r="S3">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="T3">
-        <v>2.01</v>
+        <v>1.85</v>
       </c>
       <c r="U3">
         <v>1.71</v>
@@ -948,10 +948,10 @@
         <v>1.74</v>
       </c>
       <c r="Z3">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AA3">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AB3">
         <v>1.55</v>
@@ -1031,13 +1031,13 @@
         <v>6</v>
       </c>
       <c r="J4">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="K4">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L4">
-        <v>5.7</v>
+        <v>6.1</v>
       </c>
       <c r="M4">
         <v>1.3</v>
@@ -1058,10 +1058,10 @@
         <v>4.33</v>
       </c>
       <c r="S4">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="T4">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="U4">
         <v>1.87</v>
@@ -1079,7 +1079,7 @@
         <v>3</v>
       </c>
       <c r="Z4">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AA4">
         <v>1.07</v>
@@ -1162,13 +1162,13 @@
         <v>6</v>
       </c>
       <c r="J5">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="K5">
-        <v>4.55</v>
+        <v>4.75</v>
       </c>
       <c r="L5">
-        <v>5.8</v>
+        <v>6.1</v>
       </c>
       <c r="M5">
         <v>1.33</v>
@@ -1189,10 +1189,10 @@
         <v>4.2</v>
       </c>
       <c r="S5">
-        <v>1.52</v>
+        <v>1.6</v>
       </c>
       <c r="T5">
-        <v>2.36</v>
+        <v>2.2</v>
       </c>
       <c r="U5">
         <v>1.8</v>
@@ -1293,13 +1293,13 @@
         <v>2.4</v>
       </c>
       <c r="J6">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="K6">
         <v>3.35</v>
       </c>
       <c r="L6">
-        <v>1.86</v>
+        <v>2.05</v>
       </c>
       <c r="M6">
         <v>1.38</v>
@@ -1320,10 +1320,10 @@
         <v>3.1</v>
       </c>
       <c r="S6">
-        <v>1.94</v>
+        <v>2.02</v>
       </c>
       <c r="T6">
-        <v>1.66</v>
+        <v>1.72</v>
       </c>
       <c r="U6">
         <v>1.8</v>
@@ -1424,13 +1424,13 @@
         <v>4.75</v>
       </c>
       <c r="J7">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="K7">
-        <v>3.21</v>
+        <v>3.5</v>
       </c>
       <c r="L7">
-        <v>3.68</v>
+        <v>3.8</v>
       </c>
       <c r="M7">
         <v>1.44</v>
@@ -1451,10 +1451,10 @@
         <v>3.3</v>
       </c>
       <c r="S7">
-        <v>2.01</v>
+        <v>2.07</v>
       </c>
       <c r="T7">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="U7">
         <v>1.83</v>
@@ -1555,13 +1555,13 @@
         <v>3.55</v>
       </c>
       <c r="J8">
-        <v>2.28</v>
+        <v>2.25</v>
       </c>
       <c r="K8">
-        <v>3.12</v>
+        <v>3.25</v>
       </c>
       <c r="L8">
-        <v>2.82</v>
+        <v>3.15</v>
       </c>
       <c r="M8">
         <v>1.42</v>
@@ -1582,10 +1582,10 @@
         <v>3.1</v>
       </c>
       <c r="S8">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="T8">
-        <v>1.72</v>
+        <v>1.81</v>
       </c>
       <c r="U8">
         <v>1.75</v>
@@ -1686,13 +1686,13 @@
         <v>3.5</v>
       </c>
       <c r="J9">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="K9">
-        <v>3.27</v>
+        <v>3.4</v>
       </c>
       <c r="L9">
-        <v>2.93</v>
+        <v>3.05</v>
       </c>
       <c r="M9">
         <v>1.36</v>
@@ -1713,10 +1713,10 @@
         <v>3.75</v>
       </c>
       <c r="S9">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="T9">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="U9">
         <v>1.62</v>
@@ -1817,13 +1817,13 @@
         <v>5.75</v>
       </c>
       <c r="J10">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="K10">
-        <v>4.3</v>
+        <v>4.75</v>
       </c>
       <c r="L10">
-        <v>5.8</v>
+        <v>7</v>
       </c>
       <c r="M10">
         <v>1.28</v>
@@ -1844,10 +1844,10 @@
         <v>4.75</v>
       </c>
       <c r="S10">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="T10">
-        <v>2.31</v>
+        <v>2.38</v>
       </c>
       <c r="U10">
         <v>1.75</v>
@@ -1948,13 +1948,13 @@
         <v>9</v>
       </c>
       <c r="J11">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="K11">
-        <v>4.85</v>
+        <v>5.1</v>
       </c>
       <c r="L11">
-        <v>8.699999999999999</v>
+        <v>9.5</v>
       </c>
       <c r="M11">
         <v>1.36</v>
@@ -1975,10 +1975,10 @@
         <v>4</v>
       </c>
       <c r="S11">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="T11">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="U11">
         <v>2.25</v>
@@ -2079,13 +2079,13 @@
         <v>1.83</v>
       </c>
       <c r="J12">
-        <v>9.300000000000001</v>
+        <v>8</v>
       </c>
       <c r="K12">
-        <v>5.8</v>
+        <v>5.4</v>
       </c>
       <c r="L12">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="M12">
         <v>1.29</v>
@@ -2106,10 +2106,10 @@
         <v>5</v>
       </c>
       <c r="S12">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="T12">
-        <v>2.54</v>
+        <v>2.55</v>
       </c>
       <c r="U12">
         <v>1.8</v>
@@ -2210,13 +2210,13 @@
         <v>3.5</v>
       </c>
       <c r="J13">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="K13">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="L13">
-        <v>2.78</v>
+        <v>2.95</v>
       </c>
       <c r="M13">
         <v>1.4</v>
@@ -2237,10 +2237,10 @@
         <v>3.4</v>
       </c>
       <c r="S13">
-        <v>1.89</v>
+        <v>1.96</v>
       </c>
       <c r="T13">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="U13">
         <v>1.73</v>
